--- a/data/dim/dim_mapping.xlsx
+++ b/data/dim/dim_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung.nguyen\Desktop\0 Project\stock\data\dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A496003-2BA4-40EB-A2FC-355915676C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C716103-F6CC-4316-A19F-FF08AE7A08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="900" windowWidth="15615" windowHeight="13110" xr2:uid="{8C347212-4118-4FAC-93D0-BFF4F80A5161}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8C347212-4118-4FAC-93D0-BFF4F80A5161}"/>
   </bookViews>
   <sheets>
     <sheet name="dim_account_m" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1902">
   <si>
     <t>account</t>
   </si>
@@ -5739,6 +5739,12 @@
   </si>
   <si>
     <t>Shareholders' equity</t>
+  </si>
+  <si>
+    <t>Profit After Tax</t>
+  </si>
+  <si>
+    <t>Bonus and welfare funds</t>
   </si>
 </sst>
 </file>
@@ -6103,7 +6109,7 @@
   <dimension ref="A1:E1726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,10 +7710,10 @@
         <v>VN</v>
       </c>
       <c r="D132" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E132" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -8574,10 +8580,10 @@
         <v>VN</v>
       </c>
       <c r="D204" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E204" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -9090,7 +9096,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>14310</v>
       </c>
@@ -9101,6 +9107,12 @@
         <f>IFERROR(VLOOKUP(B246,'acc2020'!J:K,2,0), "No")</f>
         <v>VN</v>
       </c>
+      <c r="D246" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1901</v>
+      </c>
     </row>
     <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
@@ -10530,7 +10542,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>23000</v>
       </c>
@@ -10541,6 +10553,12 @@
         <f>IFERROR(VLOOKUP(B364,'acc2020'!J:K,2,0), "No")</f>
         <v>VN</v>
       </c>
+      <c r="D364" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1900</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
@@ -26924,11 +26942,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1726" xr:uid="{90D911A4-DCE2-4CA7-959D-16225AB2E9B3}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="VN"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/data/dim/dim_mapping.xlsx
+++ b/data/dim/dim_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung.nguyen\Desktop\0 Project\stock\data\dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C716103-F6CC-4316-A19F-FF08AE7A08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A6ABD-DBD8-41C9-86C8-2641D1F0E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8C347212-4118-4FAC-93D0-BFF4F80A5161}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8C347212-4118-4FAC-93D0-BFF4F80A5161}"/>
   </bookViews>
   <sheets>
     <sheet name="dim_account_m" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="1906">
   <si>
     <t>account</t>
   </si>
@@ -5745,6 +5745,18 @@
   </si>
   <si>
     <t>Bonus and welfare funds</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
   </si>
 </sst>
 </file>
@@ -6109,7 +6121,7 @@
   <dimension ref="A1:E1726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D365" sqref="D365"/>
+      <selection activeCell="D417" sqref="D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7673,6 +7685,12 @@
         <f>IFERROR(VLOOKUP(B129,'acc2020'!J:K,2,0), "No")</f>
         <v>VN</v>
       </c>
+      <c r="D129" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -7685,6 +7703,12 @@
         <f>IFERROR(VLOOKUP(B130,'acc2020'!J:K,2,0), "No")</f>
         <v>VN</v>
       </c>
+      <c r="D130" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1905</v>
+      </c>
     </row>
     <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -7698,7 +7722,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>13110</v>
       </c>
@@ -8568,7 +8592,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>13340</v>
       </c>
@@ -8754,7 +8778,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>14000</v>
       </c>
@@ -8784,7 +8808,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>14110</v>
       </c>
@@ -8874,7 +8898,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>14148</v>
       </c>
@@ -9096,7 +9120,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>14310</v>
       </c>
@@ -9138,7 +9162,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>14400</v>
       </c>
@@ -9660,7 +9684,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>22051</v>
       </c>
@@ -10350,7 +10374,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>22230</v>
       </c>
@@ -10416,7 +10440,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>22509</v>
       </c>
@@ -10542,7 +10566,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>23000</v>
       </c>
@@ -10560,7 +10584,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>23001</v>
       </c>
@@ -10674,7 +10698,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>23810</v>
       </c>
@@ -10980,7 +11004,7 @@
         <v>VN</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>32000</v>
       </c>
@@ -10998,7 +11022,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>32100</v>
       </c>
@@ -11016,7 +11040,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>32200</v>
       </c>
@@ -26942,10 +26966,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1726" xr:uid="{90D911A4-DCE2-4CA7-959D-16225AB2E9B3}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="33600"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
